--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юрий\Desktop\ps-pb-hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A415A5F-6BD5-4857-84E9-822EBBE436B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2928F7CB-BD8C-4DCB-8F15-3660F8FB5E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9887" uniqueCount="3343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9904" uniqueCount="3343">
   <si>
     <t>IP-адрес</t>
   </si>
@@ -10059,7 +10059,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -10087,6 +10087,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10461,7 +10467,7 @@
   <dimension ref="A1:H1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52928,30 +52934,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235334B-74A9-4E98-B438-C03D62148995}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -52973,8 +52981,11 @@
       <c r="G1" s="10" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="10" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -52996,8 +53007,11 @@
       <c r="G2" s="15">
         <v>43914</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -53019,8 +53033,11 @@
       <c r="G3" s="15">
         <v>44021</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="11" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -53042,8 +53059,11 @@
       <c r="G4" s="15">
         <v>43974</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -53065,8 +53085,11 @@
       <c r="G5" s="15">
         <v>43864</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -53088,8 +53111,11 @@
       <c r="G6" s="15">
         <v>43869</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -53111,8 +53137,11 @@
       <c r="G7" s="15">
         <v>43893</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="11" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -53134,8 +53163,11 @@
       <c r="G8" s="15">
         <v>43872</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -53157,8 +53189,11 @@
       <c r="G9" s="15">
         <v>43959</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -53180,8 +53215,11 @@
       <c r="G10" s="15">
         <v>43904</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -53203,8 +53241,11 @@
       <c r="G11" s="15">
         <v>43954</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="11" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -53226,8 +53267,11 @@
       <c r="G12" s="15">
         <v>43854</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="11" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -53249,8 +53293,11 @@
       <c r="G13" s="15">
         <v>44019</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -53272,8 +53319,11 @@
       <c r="G14" s="15">
         <v>43921</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="11" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -53295,8 +53345,11 @@
       <c r="G15" s="15">
         <v>44010</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -53318,8 +53371,11 @@
       <c r="G16" s="15">
         <v>43942</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="11" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -53340,6 +53396,9 @@
       </c>
       <c r="G17" s="15">
         <v>43972</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юрий\Desktop\ps-pb-hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2928F7CB-BD8C-4DCB-8F15-3660F8FB5E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99C241-AAC3-4141-B89D-EAD82DE4DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
-    <sheet name="log2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9904" uniqueCount="3343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9800" uniqueCount="3343">
   <si>
     <t>IP-адрес</t>
   </si>
@@ -10115,7 +10114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10138,18 +10137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10466,8 +10453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1633"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52937,471 +52924,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0235334B-74A9-4E98-B438-C03D62148995}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>1984</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C2" s="12">
-        <v>67</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="15">
-        <v>43914</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C3" s="12">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15">
-        <v>44021</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C4" s="12">
-        <v>59</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15">
-        <v>43974</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C5" s="12">
-        <v>62</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1947</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="15">
-        <v>43864</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C6" s="12">
-        <v>66</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15">
-        <v>43869</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C7" s="12">
-        <v>70</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15">
-        <v>43893</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C8" s="12">
-        <v>48</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="15">
-        <v>43872</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C9" s="12">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="15">
-        <v>43959</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C10" s="12">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="15">
-        <v>43904</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C11" s="12">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="15">
-        <v>43954</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C12" s="12">
-        <v>53</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1947</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="15">
-        <v>43854</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C13" s="12">
-        <v>53</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="15">
-        <v>44019</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C14" s="12">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43921</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C15" s="12">
-        <v>51</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1970</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="15">
-        <v>44010</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C16" s="12">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="15">
-        <v>43942</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C17" s="12">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="15">
-        <v>43972</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>